--- a/fish/weight_pred/biometria.xlsx
+++ b/fish/weight_pred/biometria.xlsx
@@ -616,8 +616,8 @@
   </sheetPr>
   <dimension ref="A1:H479"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A355" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B362" activeCellId="0" sqref="B362"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A454" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E478" activeCellId="0" sqref="E478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9830,7 +9830,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="14" t="n">
         <v>354</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="14" t="n">
         <v>355</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="14" t="n">
         <v>356</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="14" t="n">
         <v>357</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="14" t="n">
         <v>358</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="14" t="n">
         <v>359</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="14" t="n">
         <v>360</v>
       </c>
@@ -10012,7 +10012,10 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="14" t="n">
+        <v>361</v>
+      </c>
       <c r="B362" s="16" t="n">
         <v>198.67</v>
       </c>
@@ -10032,7 +10035,10 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="14" t="n">
+        <v>362</v>
+      </c>
       <c r="B363" s="16" t="n">
         <v>163.91</v>
       </c>
@@ -10052,7 +10058,10 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="14" t="n">
+        <v>363</v>
+      </c>
       <c r="B364" s="16" t="n">
         <v>169.86</v>
       </c>
@@ -10072,7 +10081,10 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="14" t="n">
+        <v>364</v>
+      </c>
       <c r="B365" s="16" t="n">
         <v>215.34</v>
       </c>
@@ -10092,7 +10104,10 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="14" t="n">
+        <v>365</v>
+      </c>
       <c r="B366" s="16" t="n">
         <v>198.79</v>
       </c>
@@ -10112,7 +10127,10 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="14" t="n">
+        <v>366</v>
+      </c>
       <c r="B367" s="16" t="n">
         <v>145.5</v>
       </c>
@@ -10132,7 +10150,10 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="14" t="n">
+        <v>367</v>
+      </c>
       <c r="B368" s="16" t="n">
         <v>242.37</v>
       </c>
@@ -10152,7 +10173,10 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="14" t="n">
+        <v>368</v>
+      </c>
       <c r="B369" s="16" t="n">
         <v>171.31</v>
       </c>
@@ -10172,7 +10196,10 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="14" t="n">
+        <v>369</v>
+      </c>
       <c r="B370" s="16" t="n">
         <v>175.78</v>
       </c>
@@ -10192,7 +10219,10 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="14" t="n">
+        <v>370</v>
+      </c>
       <c r="B371" s="16" t="n">
         <v>171.27</v>
       </c>
@@ -10212,7 +10242,10 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="14" t="n">
+        <v>371</v>
+      </c>
       <c r="B372" s="16" t="n">
         <v>213.96</v>
       </c>
@@ -10232,7 +10265,10 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="14" t="n">
+        <v>372</v>
+      </c>
       <c r="B373" s="16" t="n">
         <v>167.22</v>
       </c>
@@ -10252,7 +10288,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="14" t="n">
+        <v>373</v>
+      </c>
       <c r="B374" s="16" t="n">
         <v>233.64</v>
       </c>
@@ -10272,7 +10311,10 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="14" t="n">
+        <v>374</v>
+      </c>
       <c r="B375" s="16" t="n">
         <v>224.97</v>
       </c>
@@ -10292,7 +10334,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="14" t="n">
+        <v>375</v>
+      </c>
       <c r="B376" s="16" t="n">
         <v>235.17</v>
       </c>
@@ -10312,7 +10357,10 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="14" t="n">
+        <v>376</v>
+      </c>
       <c r="B377" s="16" t="n">
         <v>207.65</v>
       </c>
@@ -10332,7 +10380,10 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="14" t="n">
+        <v>377</v>
+      </c>
       <c r="B378" s="16" t="n">
         <v>192.71</v>
       </c>
@@ -10352,7 +10403,10 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="14" t="n">
+        <v>378</v>
+      </c>
       <c r="B379" s="16" t="n">
         <v>203.44</v>
       </c>
@@ -10372,7 +10426,10 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="14" t="n">
+        <v>379</v>
+      </c>
       <c r="B380" s="16" t="n">
         <v>201.54</v>
       </c>
@@ -10392,7 +10449,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="14" t="n">
+        <v>380</v>
+      </c>
       <c r="B381" s="16" t="n">
         <v>208.09</v>
       </c>
@@ -10412,7 +10472,10 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="14" t="n">
+        <v>381</v>
+      </c>
       <c r="B382" s="16" t="n">
         <v>188.2</v>
       </c>
@@ -10432,7 +10495,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="14" t="n">
+        <v>382</v>
+      </c>
       <c r="B383" s="16" t="n">
         <v>197.51</v>
       </c>
@@ -10452,7 +10518,10 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="14" t="n">
+        <v>383</v>
+      </c>
       <c r="B384" s="16" t="n">
         <v>171.64</v>
       </c>
@@ -10472,7 +10541,10 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="14" t="n">
+        <v>384</v>
+      </c>
       <c r="B385" s="16" t="n">
         <v>170.81</v>
       </c>
@@ -10492,7 +10564,10 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="14" t="n">
+        <v>385</v>
+      </c>
       <c r="B386" s="16" t="n">
         <v>212.03</v>
       </c>
@@ -10512,7 +10587,10 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="14" t="n">
+        <v>386</v>
+      </c>
       <c r="B387" s="16" t="n">
         <v>181.86</v>
       </c>
@@ -10532,7 +10610,10 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="14" t="n">
+        <v>387</v>
+      </c>
       <c r="B388" s="16" t="n">
         <v>209.36</v>
       </c>
@@ -10552,7 +10633,10 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="14" t="n">
+        <v>388</v>
+      </c>
       <c r="B389" s="16" t="n">
         <v>173.27</v>
       </c>
@@ -10572,7 +10656,10 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="14" t="n">
+        <v>389</v>
+      </c>
       <c r="B390" s="16" t="n">
         <v>151.1</v>
       </c>
@@ -10592,7 +10679,10 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="14" t="n">
+        <v>390</v>
+      </c>
       <c r="B391" s="16" t="n">
         <v>185.16</v>
       </c>
@@ -10612,7 +10702,10 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="14" t="n">
+        <v>391</v>
+      </c>
       <c r="B392" s="16" t="n">
         <v>216.15</v>
       </c>
@@ -10632,7 +10725,10 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="14" t="n">
+        <v>392</v>
+      </c>
       <c r="B393" s="16" t="n">
         <v>225.98</v>
       </c>
@@ -10652,7 +10748,10 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="14" t="n">
+        <v>393</v>
+      </c>
       <c r="B394" s="16" t="n">
         <v>185.18</v>
       </c>
@@ -10672,7 +10771,10 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="14" t="n">
+        <v>394</v>
+      </c>
       <c r="B395" s="16" t="n">
         <v>195.5</v>
       </c>
@@ -10692,7 +10794,10 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="14" t="n">
+        <v>395</v>
+      </c>
       <c r="B396" s="16" t="n">
         <v>195.32</v>
       </c>
@@ -10712,7 +10817,10 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="14" t="n">
+        <v>396</v>
+      </c>
       <c r="B397" s="16" t="n">
         <v>163.26</v>
       </c>
@@ -10732,7 +10840,10 @@
         <v>2.3</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="14" t="n">
+        <v>397</v>
+      </c>
       <c r="B398" s="16" t="n">
         <v>186.74</v>
       </c>
@@ -10752,7 +10863,10 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="14" t="n">
+        <v>398</v>
+      </c>
       <c r="B399" s="16" t="n">
         <v>125.02</v>
       </c>
@@ -10772,7 +10886,10 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="14" t="n">
+        <v>399</v>
+      </c>
       <c r="B400" s="16" t="n">
         <v>206.58</v>
       </c>
@@ -10792,7 +10909,10 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="14" t="n">
+        <v>400</v>
+      </c>
       <c r="B401" s="16" t="n">
         <v>219.24</v>
       </c>
@@ -10812,7 +10932,10 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="14" t="n">
+        <v>401</v>
+      </c>
       <c r="B402" s="16" t="n">
         <v>237.18</v>
       </c>
@@ -10832,7 +10955,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="14" t="n">
+        <v>402</v>
+      </c>
       <c r="B403" s="16" t="n">
         <v>254.91</v>
       </c>
@@ -10852,7 +10978,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="14" t="n">
+        <v>403</v>
+      </c>
       <c r="B404" s="16" t="n">
         <v>198.27</v>
       </c>
@@ -10872,7 +11001,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="14" t="n">
+        <v>404</v>
+      </c>
       <c r="B405" s="16" t="n">
         <v>310.24</v>
       </c>
@@ -10892,7 +11024,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="14" t="n">
+        <v>405</v>
+      </c>
       <c r="B406" s="16" t="n">
         <v>273.84</v>
       </c>
@@ -10912,7 +11047,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="14" t="n">
+        <v>406</v>
+      </c>
       <c r="B407" s="16" t="n">
         <v>247.36</v>
       </c>
@@ -10932,7 +11070,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="14" t="n">
+        <v>407</v>
+      </c>
       <c r="B408" s="16" t="n">
         <v>245.08</v>
       </c>
@@ -10952,7 +11093,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="14" t="n">
+        <v>408</v>
+      </c>
       <c r="B409" s="16" t="n">
         <v>314.15</v>
       </c>
@@ -10972,7 +11116,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="14" t="n">
+        <v>409</v>
+      </c>
       <c r="B410" s="16" t="n">
         <v>251.68</v>
       </c>
@@ -10992,7 +11139,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="14" t="n">
+        <v>410</v>
+      </c>
       <c r="B411" s="16" t="n">
         <v>264.66</v>
       </c>
@@ -11012,7 +11162,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="14" t="n">
+        <v>411</v>
+      </c>
       <c r="B412" s="16" t="n">
         <v>222.29</v>
       </c>
@@ -11032,7 +11185,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="14" t="n">
+        <v>412</v>
+      </c>
       <c r="B413" s="16" t="n">
         <v>249.22</v>
       </c>
@@ -11052,7 +11208,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="14" t="n">
+        <v>413</v>
+      </c>
       <c r="B414" s="16" t="n">
         <v>237.85</v>
       </c>
@@ -11072,7 +11231,10 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="14" t="n">
+        <v>414</v>
+      </c>
       <c r="B415" s="16" t="n">
         <v>217.22</v>
       </c>
@@ -11092,7 +11254,10 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="14" t="n">
+        <v>415</v>
+      </c>
       <c r="B416" s="16" t="n">
         <v>226.28</v>
       </c>
@@ -11112,7 +11277,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="14" t="n">
+        <v>416</v>
+      </c>
       <c r="B417" s="16" t="n">
         <v>290.01</v>
       </c>
@@ -11132,7 +11300,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="14" t="n">
+        <v>417</v>
+      </c>
       <c r="B418" s="16" t="n">
         <v>286.84</v>
       </c>
@@ -11152,7 +11323,10 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="14" t="n">
+        <v>418</v>
+      </c>
       <c r="B419" s="16" t="n">
         <v>246.17</v>
       </c>
@@ -11172,7 +11346,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="14" t="n">
+        <v>419</v>
+      </c>
       <c r="B420" s="16" t="n">
         <v>193.6</v>
       </c>
@@ -11192,7 +11369,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="14" t="n">
+        <v>420</v>
+      </c>
       <c r="B421" s="16" t="n">
         <v>262.24</v>
       </c>
@@ -11212,7 +11392,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="14" t="n">
+        <v>421</v>
+      </c>
       <c r="B422" s="16" t="n">
         <v>235.4</v>
       </c>
@@ -11232,7 +11415,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="14" t="n">
+        <v>422</v>
+      </c>
       <c r="B423" s="16" t="n">
         <v>230.13</v>
       </c>
@@ -11252,7 +11438,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="14" t="n">
+        <v>423</v>
+      </c>
       <c r="B424" s="16" t="n">
         <v>252.74</v>
       </c>
@@ -11272,7 +11461,10 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="14" t="n">
+        <v>424</v>
+      </c>
       <c r="B425" s="16" t="n">
         <v>241</v>
       </c>
@@ -11292,7 +11484,10 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="14" t="n">
+        <v>425</v>
+      </c>
       <c r="B426" s="16" t="n">
         <v>291.84</v>
       </c>
@@ -11312,7 +11507,10 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="14" t="n">
+        <v>426</v>
+      </c>
       <c r="B427" s="16" t="n">
         <v>306.89</v>
       </c>
@@ -11332,7 +11530,10 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="14" t="n">
+        <v>427</v>
+      </c>
       <c r="B428" s="16" t="n">
         <v>264.21</v>
       </c>
@@ -11352,7 +11553,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="14" t="n">
+        <v>428</v>
+      </c>
       <c r="B429" s="16" t="n">
         <v>236.22</v>
       </c>
@@ -11372,7 +11576,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="14" t="n">
+        <v>429</v>
+      </c>
       <c r="B430" s="16" t="n">
         <v>262</v>
       </c>
@@ -11392,7 +11599,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="14" t="n">
+        <v>430</v>
+      </c>
       <c r="B431" s="16" t="n">
         <v>254.58</v>
       </c>
@@ -11412,7 +11622,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="14" t="n">
+        <v>431</v>
+      </c>
       <c r="B432" s="16" t="n">
         <v>284.44</v>
       </c>
@@ -11432,7 +11645,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="14" t="n">
+        <v>432</v>
+      </c>
       <c r="B433" s="16" t="n">
         <v>217.79</v>
       </c>
@@ -11452,7 +11668,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="14" t="n">
+        <v>433</v>
+      </c>
       <c r="B434" s="16" t="n">
         <v>302.4</v>
       </c>
@@ -11472,7 +11691,10 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="14" t="n">
+        <v>434</v>
+      </c>
       <c r="B435" s="16" t="n">
         <v>210.09</v>
       </c>
@@ -11492,7 +11714,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="14" t="n">
+        <v>435</v>
+      </c>
       <c r="B436" s="16" t="n">
         <v>235.3</v>
       </c>
@@ -11512,7 +11737,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="14" t="n">
+        <v>436</v>
+      </c>
       <c r="B437" s="16" t="n">
         <v>213.22</v>
       </c>
@@ -11532,7 +11760,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="14" t="n">
+        <v>437</v>
+      </c>
       <c r="B438" s="16" t="n">
         <v>247.32</v>
       </c>
@@ -11552,7 +11783,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="14" t="n">
+        <v>438</v>
+      </c>
       <c r="B439" s="16" t="n">
         <v>249.4</v>
       </c>
@@ -11572,7 +11806,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="14" t="n">
+        <v>439</v>
+      </c>
       <c r="B440" s="16" t="n">
         <v>231.44</v>
       </c>
@@ -11592,7 +11829,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="14" t="n">
+        <v>440</v>
+      </c>
       <c r="B441" s="16" t="n">
         <v>213.08</v>
       </c>
@@ -11612,7 +11852,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="14" t="n">
+        <v>441</v>
+      </c>
       <c r="B442" s="16" t="n">
         <v>220.24</v>
       </c>
@@ -11632,7 +11875,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="14" t="n">
+        <v>442</v>
+      </c>
       <c r="B443" s="16" t="n">
         <v>243.75</v>
       </c>
@@ -11652,7 +11898,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="14" t="n">
+        <v>443</v>
+      </c>
       <c r="B444" s="16" t="n">
         <v>309.72</v>
       </c>
@@ -11672,7 +11921,10 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="14" t="n">
+        <v>444</v>
+      </c>
       <c r="B445" s="16" t="n">
         <v>290.13</v>
       </c>
@@ -11692,7 +11944,10 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="14" t="n">
+        <v>445</v>
+      </c>
       <c r="B446" s="16" t="n">
         <v>248.09</v>
       </c>
@@ -11712,7 +11967,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="14" t="n">
+        <v>446</v>
+      </c>
       <c r="B447" s="16" t="n">
         <v>256.33</v>
       </c>
@@ -11732,7 +11990,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="14" t="n">
+        <v>447</v>
+      </c>
       <c r="B448" s="16" t="n">
         <v>241.04</v>
       </c>
@@ -11752,7 +12013,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="14" t="n">
+        <v>448</v>
+      </c>
       <c r="B449" s="16" t="n">
         <v>219.72</v>
       </c>
@@ -11772,7 +12036,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="14" t="n">
+        <v>449</v>
+      </c>
       <c r="B450" s="16" t="n">
         <v>279.19</v>
       </c>
@@ -11792,7 +12059,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="14" t="n">
+        <v>450</v>
+      </c>
       <c r="B451" s="16" t="n">
         <v>292.04</v>
       </c>
@@ -11812,7 +12082,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="14" t="n">
+        <v>451</v>
+      </c>
       <c r="B452" s="16" t="n">
         <v>256.82</v>
       </c>
@@ -11832,7 +12105,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="14" t="n">
+        <v>452</v>
+      </c>
       <c r="B453" s="16" t="n">
         <v>255.08</v>
       </c>
@@ -11852,7 +12128,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="14" t="n">
+        <v>453</v>
+      </c>
       <c r="B454" s="16" t="n">
         <v>248.74</v>
       </c>
@@ -11872,7 +12151,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="14" t="n">
+        <v>454</v>
+      </c>
       <c r="B455" s="16" t="n">
         <v>227.64</v>
       </c>
@@ -11892,7 +12174,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="14" t="n">
+        <v>455</v>
+      </c>
       <c r="B456" s="16" t="n">
         <v>268.32</v>
       </c>
@@ -11912,7 +12197,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="14" t="n">
+        <v>456</v>
+      </c>
       <c r="B457" s="16" t="n">
         <v>219.22</v>
       </c>
@@ -11932,7 +12220,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="14" t="n">
+        <v>457</v>
+      </c>
       <c r="B458" s="16" t="n">
         <v>234.63</v>
       </c>
@@ -11952,7 +12243,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="14" t="n">
+        <v>458</v>
+      </c>
       <c r="B459" s="16" t="n">
         <v>240.01</v>
       </c>
@@ -11972,7 +12266,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="14" t="n">
+        <v>459</v>
+      </c>
       <c r="B460" s="16" t="n">
         <v>285.53</v>
       </c>
@@ -11992,7 +12289,10 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="14" t="n">
+        <v>460</v>
+      </c>
       <c r="B461" s="16" t="n">
         <v>268.03</v>
       </c>
@@ -12012,7 +12312,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="14" t="n">
+        <v>461</v>
+      </c>
       <c r="B462" s="16" t="n">
         <v>261.39</v>
       </c>
@@ -12032,7 +12335,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="14" t="n">
+        <v>462</v>
+      </c>
       <c r="B463" s="16" t="n">
         <v>226.4</v>
       </c>
@@ -12052,7 +12358,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="14" t="n">
+        <v>463</v>
+      </c>
       <c r="B464" s="16" t="n">
         <v>235.79</v>
       </c>
@@ -12072,7 +12381,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="14" t="n">
+        <v>464</v>
+      </c>
       <c r="B465" s="16" t="n">
         <v>281.03</v>
       </c>
@@ -12092,7 +12404,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="14" t="n">
+        <v>465</v>
+      </c>
       <c r="B466" s="16" t="n">
         <v>223.28</v>
       </c>
@@ -12112,7 +12427,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="14" t="n">
+        <v>466</v>
+      </c>
       <c r="B467" s="16" t="n">
         <v>242.31</v>
       </c>
@@ -12132,7 +12450,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="14" t="n">
+        <v>467</v>
+      </c>
       <c r="B468" s="16" t="n">
         <v>250.58</v>
       </c>
@@ -12152,7 +12473,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="14" t="n">
+        <v>468</v>
+      </c>
       <c r="B469" s="16" t="n">
         <v>224.66</v>
       </c>
@@ -12172,7 +12496,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="14" t="n">
+        <v>469</v>
+      </c>
       <c r="B470" s="16" t="n">
         <v>236.19</v>
       </c>
@@ -12192,7 +12519,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="14" t="n">
+        <v>470</v>
+      </c>
       <c r="B471" s="16" t="n">
         <v>249.27</v>
       </c>
@@ -12212,7 +12542,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="14" t="n">
+        <v>471</v>
+      </c>
       <c r="B472" s="16" t="n">
         <v>273.14</v>
       </c>
@@ -12232,7 +12565,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="14" t="n">
+        <v>472</v>
+      </c>
       <c r="B473" s="16" t="n">
         <v>243.25</v>
       </c>
@@ -12252,7 +12588,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="14" t="n">
+        <v>473</v>
+      </c>
       <c r="B474" s="16" t="n">
         <v>217.25</v>
       </c>
@@ -12272,7 +12611,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="14" t="n">
+        <v>474</v>
+      </c>
       <c r="B475" s="16" t="n">
         <v>248.22</v>
       </c>
@@ -12292,7 +12634,10 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="14" t="n">
+        <v>475</v>
+      </c>
       <c r="B476" s="16" t="n">
         <v>220.84</v>
       </c>
@@ -12312,7 +12657,10 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="14" t="n">
+        <v>476</v>
+      </c>
       <c r="B477" s="16" t="n">
         <v>238.77</v>
       </c>
@@ -12332,7 +12680,10 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="14" t="n">
+        <v>477</v>
+      </c>
       <c r="B478" s="16" t="n">
         <v>248.32</v>
       </c>
@@ -12352,7 +12703,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="14" t="n">
+        <v>478</v>
+      </c>
       <c r="B479" s="16" t="n">
         <v>256.82</v>
       </c>
